--- a/numbers_at_length_state_2019.xlsx
+++ b/numbers_at_length_state_2019.xlsx
@@ -116,7 +116,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>834125.92215358885</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="3">
@@ -127,7 +127,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>10238347.298218723</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="4">
@@ -138,7 +138,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>12323661.919101074</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="5">
@@ -149,7 +149,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>13956244.762126319</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>5462427.8746717656</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="7">
@@ -171,7 +171,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>5249894.6564859832</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="8">
@@ -182,7 +182,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>3885967.5135720032</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="9">
@@ -193,7 +193,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>5227537.7238743575</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="10">
@@ -204,7 +204,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>7022874.7443432901</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="11">
@@ -215,7 +215,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>12196688.099917371</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="12">
@@ -226,7 +226,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>5964589.8410663614</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="13">
@@ -237,7 +237,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>5435390.2858560421</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="14">
@@ -248,7 +248,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>3100200.2182474686</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="15">
@@ -259,7 +259,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>2968356.3481024588</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="16">
@@ -270,7 +270,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>2432489.4277230916</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="17">
@@ -281,7 +281,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>1302241.1273738113</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="18">
@@ -292,7 +292,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>1821711.6283366734</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="19">
@@ -303,7 +303,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>1293878.7246765718</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="20">
@@ -314,7 +314,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>1333072.2527270322</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="21">
@@ -325,7 +325,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>608277.55258292356</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="22">
@@ -336,7 +336,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>613994.60563972604</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="23">
@@ -347,7 +347,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>281964.26837582781</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="24">
@@ -358,7 +358,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>285489.09752201044</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="25">
@@ -369,7 +369,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>97776.944481030936</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="26">
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>38381.382667362595</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="27">
@@ -391,7 +391,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>19190.690052420043</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
     <row r="28">
@@ -402,7 +402,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>180841.25862949219</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="29">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>2219707.55556355</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="30">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>2671810.6621367186</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="31">
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>3025760.0219496093</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="32">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>1184272.4291291994</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="33">
@@ -457,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>1138194.5245149171</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="34">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>842490.60901176766</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="35">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>1133347.4675835816</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="36">
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>1522582.471343532</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="37">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>2644282.3181968858</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="38">
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>1293142.8042449823</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="39">
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>1178410.5904524704</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="40">
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>672133.66061541298</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="41">
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>643549.4735204376</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="42">
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>527371.75290828396</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="43">
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>282330.18331973878</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="44">
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>394953.10597447818</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="45">
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>280517.18675798341</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="46">
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="1">
-        <v>289014.4732641693</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="47">
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>131876.5851577362</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="48">
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>133116.06116847383</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="49">
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="1">
-        <v>61130.785924957279</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="50">
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="1">
-        <v>61894.98054152527</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="51">
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>21198.364941402437</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="52">
@@ -666,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="1">
-        <v>8321.2107011199951</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="53">
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>4160.6050727783204</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
     <row r="54">
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>834125.92215358885</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="55">
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>10238347.298218723</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="56">
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>12323661.919101074</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="57">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>13956244.762126319</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="58">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>5462427.8746717656</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="59">
@@ -743,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>5249894.6564859832</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="60">
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>3885967.5135720032</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="61">
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="1">
-        <v>5227537.7238743575</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="62">
@@ -776,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>7022874.7443432901</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="63">
@@ -787,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>12196688.099917371</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="64">
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>5964589.8410663614</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="65">
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="1">
-        <v>5435390.2858560421</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="66">
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="1">
-        <v>3100200.2182474686</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="67">
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="1">
-        <v>2968356.3481024588</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="68">
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>2432489.4277230916</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="69">
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="1">
-        <v>1302241.1273738113</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="70">
@@ -864,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>1821711.6283366734</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="71">
@@ -875,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>1293878.7246765718</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="72">
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>1333072.2527270322</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="73">
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>608277.55258292356</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="74">
@@ -908,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="1">
-        <v>613994.60563972604</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="75">
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>281964.26837582781</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="76">
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>285489.09752201044</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="77">
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="1">
-        <v>97776.944481030936</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="78">
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>38381.382667362595</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="79">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>19190.690052420043</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
     <row r="80">
@@ -974,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="1">
-        <v>180841.25862949219</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="81">
@@ -985,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1">
-        <v>2219707.55556355</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="82">
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="1">
-        <v>2671810.6621367186</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="83">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="1">
-        <v>3025760.0219496093</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="84">
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="1">
-        <v>1184272.4291291994</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="85">
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="1">
-        <v>1138194.5245149171</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="86">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="1">
-        <v>842490.60901176766</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="87">
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="1">
-        <v>1133347.4675835816</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="88">
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="1">
-        <v>1522582.471343532</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="89">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1">
-        <v>2644282.3181968858</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="90">
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1">
-        <v>1293142.8042449823</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="91">
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="1">
-        <v>1178410.5904524704</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="92">
@@ -1106,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="1">
-        <v>672133.66061541298</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="93">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="1">
-        <v>643549.4735204376</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="94">
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="1">
-        <v>527371.75290828396</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="95">
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="1">
-        <v>282330.18331973878</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="96">
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="1">
-        <v>394953.10597447818</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="97">
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="1">
-        <v>280517.18675798341</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="98">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="1">
-        <v>289014.4732641693</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="99">
@@ -1183,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="1">
-        <v>131876.5851577362</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="100">
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="1">
-        <v>133116.06116847383</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="101">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1">
-        <v>61130.785924957279</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="102">
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="1">
-        <v>61894.98054152527</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="103">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1">
-        <v>21198.364941402437</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="104">
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="1">
-        <v>8321.2107011199951</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="105">
@@ -1249,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="1">
-        <v>4160.6050727783204</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
     <row r="106">
@@ -1260,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="C106" s="1">
-        <v>180841.25862949219</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="107">
@@ -1271,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="C107" s="1">
-        <v>2219707.55556355</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="108">
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="1">
-        <v>2671810.6621367186</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="109">
@@ -1293,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="1">
-        <v>3025760.0219496093</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="110">
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="1">
-        <v>1184272.4291291994</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="1">
-        <v>1138194.5245149171</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="112">
@@ -1326,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="1">
-        <v>842490.60901176766</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="113">
@@ -1337,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="1">
-        <v>1133347.4675835816</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="1">
-        <v>1522582.471343532</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="115">
@@ -1359,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="1">
-        <v>2644282.3181968858</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="116">
@@ -1370,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="C116" s="1">
-        <v>1293142.8042449823</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="117">
@@ -1381,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="1">
-        <v>1178410.5904524704</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="118">
@@ -1392,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="C118" s="1">
-        <v>672133.66061541298</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="119">
@@ -1403,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="1">
-        <v>643549.4735204376</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="120">
@@ -1414,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="C120" s="1">
-        <v>527371.75290828396</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="121">
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="1">
-        <v>282330.18331973878</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="122">
@@ -1436,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="1">
-        <v>394953.10597447818</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="123">
@@ -1447,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="C123" s="1">
-        <v>280517.18675798341</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="124">
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="C124" s="1">
-        <v>289014.4732641693</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="125">
@@ -1469,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="C125" s="1">
-        <v>131876.5851577362</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="126">
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="C126" s="1">
-        <v>133116.06116847383</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="127">
@@ -1491,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="C127" s="1">
-        <v>61130.785924957279</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="128">
@@ -1502,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="C128" s="1">
-        <v>61894.98054152527</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="129">
@@ -1513,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="C129" s="1">
-        <v>21198.364941402437</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="130">
@@ -1524,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="C130" s="1">
-        <v>8321.2107011199951</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="131">
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="C131" s="1">
-        <v>4160.6050727783204</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
     <row r="132">
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="C132" s="1">
-        <v>226753.8906546387</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="133">
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="C133" s="1">
-        <v>2783254.9284051941</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="134">
@@ -1568,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="1">
-        <v>3350139.6048857425</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="135">
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="C135" s="1">
-        <v>3793950.9068006841</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="136">
@@ -1590,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="C136" s="1">
-        <v>1484939.7915895265</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="137">
@@ -1601,7 +1601,7 @@
         <v>7</v>
       </c>
       <c r="C137" s="1">
-        <v>1427163.4620965517</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="138">
@@ -1612,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="C138" s="1">
-        <v>1056385.1683028443</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="139">
@@ -1623,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="C139" s="1">
-        <v>1421085.816841623</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="140">
@@ -1634,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="C140" s="1">
-        <v>1909141.2094573644</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="141">
@@ -1645,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="C141" s="1">
-        <v>3315622.2655410459</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="142">
@@ -1656,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="C142" s="1">
-        <v>1621450.5708310714</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="143">
@@ -1667,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="C143" s="1">
-        <v>1477589.7281338116</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="144">
@@ -1678,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="C144" s="1">
-        <v>842777.38243762706</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="145">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="C145" s="1">
-        <v>806936.13866335526</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="146">
@@ -1700,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="C146" s="1">
-        <v>661262.79865322763</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="147">
@@ -1711,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="C147" s="1">
-        <v>354009.19017131656</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="148">
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="C148" s="1">
-        <v>495225.22727698751</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="149">
@@ -1733,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="C149" s="1">
-        <v>351735.90349306032</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="150">
@@ -1744,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="C150" s="1">
-        <v>362390.51179366076</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="151">
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="C151" s="1">
-        <v>165357.88899827807</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="152">
@@ -1766,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="C152" s="1">
-        <v>166912.04765619623</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="153">
@@ -1777,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="C153" s="1">
-        <v>76650.89068894196</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="154">
@@ -1788,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="C154" s="1">
-        <v>77609.10179539719</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="155">
@@ -1799,7 +1799,7 @@
         <v>7</v>
       </c>
       <c r="C155" s="1">
-        <v>26580.28241126156</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="156">
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="C156" s="1">
-        <v>10433.829734075165</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="157">
@@ -1821,7 +1821,7 @@
         <v>7</v>
       </c>
       <c r="C157" s="1">
-        <v>5216.9145187316899</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
     <row r="158">
@@ -1832,7 +1832,7 @@
         <v>8</v>
       </c>
       <c r="C158" s="1">
-        <v>834125.92215358885</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="159">
@@ -1843,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="1">
-        <v>10238347.298218723</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="160">
@@ -1854,7 +1854,7 @@
         <v>8</v>
       </c>
       <c r="C160" s="1">
-        <v>12323661.919101074</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="161">
@@ -1865,7 +1865,7 @@
         <v>8</v>
       </c>
       <c r="C161" s="1">
-        <v>13956244.762126319</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="162">
@@ -1876,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="C162" s="1">
-        <v>5462427.8746717656</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="163">
@@ -1887,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="C163" s="1">
-        <v>5249894.6564859832</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="164">
@@ -1898,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="C164" s="1">
-        <v>3885967.5135720032</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="165">
@@ -1909,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="C165" s="1">
-        <v>5227537.7238743575</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="166">
@@ -1920,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="C166" s="1">
-        <v>7022874.7443432901</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="167">
@@ -1931,7 +1931,7 @@
         <v>8</v>
       </c>
       <c r="C167" s="1">
-        <v>12196688.099917371</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="168">
@@ -1942,7 +1942,7 @@
         <v>8</v>
       </c>
       <c r="C168" s="1">
-        <v>5964589.8410663614</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="169">
@@ -1953,7 +1953,7 @@
         <v>8</v>
       </c>
       <c r="C169" s="1">
-        <v>5435390.2858560421</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="170">
@@ -1964,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="C170" s="1">
-        <v>3100200.2182474686</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="171">
@@ -1975,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="C171" s="1">
-        <v>2968356.3481024588</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="172">
@@ -1986,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="C172" s="1">
-        <v>2432489.4277230916</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="173">
@@ -1997,7 +1997,7 @@
         <v>8</v>
       </c>
       <c r="C173" s="1">
-        <v>1302241.1273738113</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="174">
@@ -2008,7 +2008,7 @@
         <v>8</v>
       </c>
       <c r="C174" s="1">
-        <v>1821711.6283366734</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="175">
@@ -2019,7 +2019,7 @@
         <v>8</v>
       </c>
       <c r="C175" s="1">
-        <v>1293878.7246765718</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="176">
@@ -2030,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="C176" s="1">
-        <v>1333072.2527270322</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="177">
@@ -2041,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="C177" s="1">
-        <v>608277.55258292356</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="178">
@@ -2052,7 +2052,7 @@
         <v>8</v>
       </c>
       <c r="C178" s="1">
-        <v>613994.60563972604</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="179">
@@ -2063,7 +2063,7 @@
         <v>8</v>
       </c>
       <c r="C179" s="1">
-        <v>281964.26837582781</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="180">
@@ -2074,7 +2074,7 @@
         <v>8</v>
       </c>
       <c r="C180" s="1">
-        <v>285489.09752201044</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="181">
@@ -2085,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="C181" s="1">
-        <v>97776.944481030936</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="182">
@@ -2096,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="C182" s="1">
-        <v>38381.382667362595</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="183">
@@ -2107,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="C183" s="1">
-        <v>19190.690052420043</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
     <row r="184">
@@ -2118,7 +2118,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="1">
-        <v>834125.92215358885</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="185">
@@ -2129,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="1">
-        <v>10238347.298218723</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="186">
@@ -2140,7 +2140,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="1">
-        <v>12323661.919101074</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="187">
@@ -2151,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="1">
-        <v>13956244.762126319</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="188">
@@ -2162,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="1">
-        <v>5462427.8746717656</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="189">
@@ -2173,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="1">
-        <v>5249894.6564859832</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="190">
@@ -2184,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="1">
-        <v>3885967.5135720032</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="191">
@@ -2195,7 +2195,7 @@
         <v>9</v>
       </c>
       <c r="C191" s="1">
-        <v>5227537.7238743575</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="192">
@@ -2206,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="1">
-        <v>7022874.7443432901</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="193">
@@ -2217,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="C193" s="1">
-        <v>12196688.099917371</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="194">
@@ -2228,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="C194" s="1">
-        <v>5964589.8410663614</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="195">
@@ -2239,7 +2239,7 @@
         <v>9</v>
       </c>
       <c r="C195" s="1">
-        <v>5435390.2858560421</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="196">
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="1">
-        <v>3100200.2182474686</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="197">
@@ -2261,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="C197" s="1">
-        <v>2968356.3481024588</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="198">
@@ -2272,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="1">
-        <v>2432489.4277230916</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="199">
@@ -2283,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="C199" s="1">
-        <v>1302241.1273738113</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="200">
@@ -2294,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="C200" s="1">
-        <v>1821711.6283366734</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="201">
@@ -2305,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="C201" s="1">
-        <v>1293878.7246765718</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="202">
@@ -2316,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="C202" s="1">
-        <v>1333072.2527270322</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="203">
@@ -2327,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="C203" s="1">
-        <v>608277.55258292356</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="204">
@@ -2338,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="C204" s="1">
-        <v>613994.60563972604</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="205">
@@ -2349,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="C205" s="1">
-        <v>281964.26837582781</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="206">
@@ -2360,7 +2360,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="1">
-        <v>285489.09752201044</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="207">
@@ -2371,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="C207" s="1">
-        <v>97776.944481030936</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="208">
@@ -2382,7 +2382,7 @@
         <v>9</v>
       </c>
       <c r="C208" s="1">
-        <v>38381.382667362595</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="209">
@@ -2393,7 +2393,7 @@
         <v>9</v>
       </c>
       <c r="C209" s="1">
-        <v>19190.690052420043</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
     <row r="210">
@@ -2404,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="C210" s="1">
-        <v>180841.25862949219</v>
+        <v>1264938.232421875</v>
       </c>
     </row>
     <row r="211">
@@ -2415,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="C211" s="1">
-        <v>2219707.55556355</v>
+        <v>15898425.872802734</v>
       </c>
     </row>
     <row r="212">
@@ -2426,7 +2426,7 @@
         <v>10</v>
       </c>
       <c r="C212" s="1">
-        <v>2671810.6621367186</v>
+        <v>19060770.99609375</v>
       </c>
     </row>
     <row r="213">
@@ -2437,7 +2437,7 @@
         <v>10</v>
       </c>
       <c r="C213" s="1">
-        <v>3025760.0219496093</v>
+        <v>22156789.794921875</v>
       </c>
     </row>
     <row r="214">
@@ -2448,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="C214" s="1">
-        <v>1184272.4291291994</v>
+        <v>9027962.40234375</v>
       </c>
     </row>
     <row r="215">
@@ -2459,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="C215" s="1">
-        <v>1138194.5245149171</v>
+        <v>9068628.90625</v>
       </c>
     </row>
     <row r="216">
@@ -2470,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="C216" s="1">
-        <v>842490.60901176766</v>
+        <v>6862453.61328125</v>
       </c>
     </row>
     <row r="217">
@@ -2481,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="C217" s="1">
-        <v>1133347.4675835816</v>
+        <v>9198800.5218505859</v>
       </c>
     </row>
     <row r="218">
@@ -2492,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="C218" s="1">
-        <v>1522582.471343532</v>
+        <v>12330866.884231567</v>
       </c>
     </row>
     <row r="219">
@@ -2503,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="C219" s="1">
-        <v>2644282.3181968858</v>
+        <v>21252714.208602905</v>
       </c>
     </row>
     <row r="220">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="C220" s="1">
-        <v>1293142.8042449823</v>
+        <v>10294373.378753662</v>
       </c>
     </row>
     <row r="221">
@@ -2525,7 +2525,7 @@
         <v>10</v>
       </c>
       <c r="C221" s="1">
-        <v>1178410.5904524704</v>
+        <v>9254571.3768005371</v>
       </c>
     </row>
     <row r="222">
@@ -2536,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="C222" s="1">
-        <v>672133.66061541298</v>
+        <v>5221157.0129394531</v>
       </c>
     </row>
     <row r="223">
@@ -2547,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="C223" s="1">
-        <v>643549.4735204376</v>
+        <v>4942172.721862793</v>
       </c>
     </row>
     <row r="224">
@@ -2558,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="C224" s="1">
-        <v>527371.75290828396</v>
+        <v>3990679.4891357422</v>
       </c>
     </row>
     <row r="225">
@@ -2569,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="C225" s="1">
-        <v>282330.18331973878</v>
+        <v>2106215.8489227295</v>
       </c>
     </row>
     <row r="226">
@@ -2580,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="C226" s="1">
-        <v>394953.10597447818</v>
+        <v>2926799.0379333496</v>
       </c>
     </row>
     <row r="227">
@@ -2591,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="C227" s="1">
-        <v>280517.18675798341</v>
+        <v>2066948.8639831543</v>
       </c>
     </row>
     <row r="228">
@@ -2602,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="C228" s="1">
-        <v>289014.4732641693</v>
+        <v>2121538.7115478516</v>
       </c>
     </row>
     <row r="229">
@@ -2613,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="C229" s="1">
-        <v>131876.5851577362</v>
+        <v>973526.56936645508</v>
       </c>
     </row>
     <row r="230">
@@ -2624,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="C230" s="1">
-        <v>133116.06116847383</v>
+        <v>972189.28337097168</v>
       </c>
     </row>
     <row r="231">
@@ -2635,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="C231" s="1">
-        <v>61130.785924957279</v>
+        <v>446174.12567138672</v>
       </c>
     </row>
     <row r="232">
@@ -2646,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="C232" s="1">
-        <v>61894.98054152527</v>
+        <v>452284.0518951416</v>
       </c>
     </row>
     <row r="233">
@@ -2657,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="C233" s="1">
-        <v>21198.364941402437</v>
+        <v>154776.07345581055</v>
       </c>
     </row>
     <row r="234">
@@ -2668,7 +2668,7 @@
         <v>10</v>
       </c>
       <c r="C234" s="1">
-        <v>8321.2107011199951</v>
+        <v>60746.269226074219</v>
       </c>
     </row>
     <row r="235">
@@ -2679,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="C235" s="1">
-        <v>4160.6050727783204</v>
+        <v>40497.51091003418</v>
       </c>
     </row>
   </sheetData>
